--- a/notebooks_rotten_tomatoes_spacy/test_cases/approach5.xlsx
+++ b/notebooks_rotten_tomatoes_spacy/test_cases/approach5.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,21 +514,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>we started to wonder if ? some unpaid intern had just typed 'chris rock , ' 'anthony hopkins' and 'terrorists' into some univac-like script machine .</t>
+          <t>working from a surprisingly sensitive script co-written by gianni romoli . . . ozpetek avoids most of the pitfalls you'd expect in such a potentially sudsy set-up .</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>we {mask} to {mask} if some unpaid intern had just typed 'chris rock , ' 'anthony hopkins ' and 'terrorists ' into some univac-like script machine .</t>
+          <t>working from a surprisingly {mask} script co - written by gianni romoli . . . ozpetek {mask} most of the pitfalls you 'd expect in such a potentially sudsy set - up .</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>we {neg_verb} to {neg_verb} if some unpaid intern had just typed 'chris rock , ' 'anthony hopkins ' and 'terrorists ' into some univac-like script machine .</t>
+          <t>working from a surprisingly {neg_adj} script co - written by gianni romoli . . . ozpetek {neg_verb} most of the pitfalls you 'd expect in such a potentially sudsy set - up .</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>what ensues are much blood-splattering , mass drug-induced bowel evacuations , and none-too-funny commentary on the cultural distinctions between americans and brits .</t>
+          <t>it's like a " big chill " reunion of the baader-meinhof gang , only these guys are more harmless pranksters than political activists .</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>what ensues {mask} much blood-splattering , mass drug-induced bowel evacuations , and {mask} commentary on the cultural distinctions between americans and brits .</t>
+          <t>it 's like a " {mask} chill " reunion of the baader - meinhof gang , only these guys are more {mask} pranksters than political activists .</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>what ensues {neg_verb} much blood-splattering , mass drug-induced bowel evacuations , and {neg_adj} commentary on the cultural distinctions between americans and brits .</t>
+          <t>it 's like a " {neg_adj} chill " reunion of the baader - meinhof gang , only these guys are more {neg_adj} pranksters than political activists .</t>
         </is>
       </c>
     </row>
@@ -569,12 +569,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>the stunt work is {mask} ; the dialogue and drama often food-spittingly {mask} .</t>
+          <t>the stunt work is top - {mask} ; the dialogue and drama often food - spittingly {mask} .</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>the stunt work is {pos_adj} ; the dialogue and drama often food-spittingly {pos_adj} .</t>
+          <t>the stunt work is top - {pos_adj} ; the dialogue and drama often food - spittingly {pos_adj} .</t>
         </is>
       </c>
     </row>
@@ -610,17 +610,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>death to smoochy tells a moldy-oldie , not-nearly -as-nasty -as-it- thinks-it-is joke .</t>
+          <t>a rip-off twice removed , modeled after [seagal's] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>death to {mask} tells a moldy-oldie , not-nearly {mask} -as-it- thinks-it-is joke .</t>
+          <t>a rip - off twice {mask} , {mask} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>death to {neg_verb} tells a moldy-oldie , not-nearly {neg_adj} -as-it- thinks-it-is joke .</t>
+          <t>a rip - off twice {neg_verb} , {neg_verb} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
     </row>
@@ -629,21 +629,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a rip-off twice removed , modeled after [seagal's] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>what might have been readily dismissed as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>a rip-off twice {mask} , {mask} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>what might have been readily {mask} as the {mask} rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>a rip-off twice {neg_verb} , {neg_verb} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>what might have been readily {neg_verb} as the {neg_adj} rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
     </row>
@@ -652,21 +652,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>what might have been readily dismissed as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>the dialogue is cumbersome , the simpering soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>what might have been readily {mask} as the {mask} rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>the dialogue is {mask} , the {mask} soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>what might have been readily {neg_verb} as the {neg_adj} rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>the dialogue is {neg_adj} , the {neg_verb} soundtrack and editing more so .</t>
         </is>
       </c>
     </row>
@@ -675,21 +675,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>too bad none of it is funny .</t>
+          <t>less cinematically powerful than quietly and deeply moving , which is powerful in itself .</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>too {mask} none of it is {mask} .</t>
+          <t>less cinematically {mask} than quietly and deeply moving , which is {mask} in itself .</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>too {neg_adj} none of it is {pos_adj} .</t>
+          <t>less cinematically {pos_adj} than quietly and deeply moving , which is {pos_adj} in itself .</t>
         </is>
       </c>
     </row>
@@ -698,21 +698,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the simpering soundtrack and editing more so .</t>
+          <t>pratfalls aside , barbershop gets its greatest play from the timeless spectacle of people really talking to each other .</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the {mask} soundtrack and {mask} more so .</t>
+          <t>pratfalls aside , barbershop gets its greatest play from the {mask} spectacle of people really {mask} to each other .</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the {neg_verb} soundtrack and {pos_verb} more so .</t>
+          <t>pratfalls aside , barbershop gets its greatest play from the {pos_adj} spectacle of people really {pos_verb} to each other .</t>
         </is>
       </c>
     </row>
@@ -725,17 +725,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>less cinematically powerful than quietly and deeply moving , which is powerful in itself .</t>
+          <t>an engrossing story that combines psychological drama , sociological reflection , and high-octane thriller .</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>less cinematically {mask} than quietly and deeply moving , which is {mask} in itself .</t>
+          <t>an {mask} story that {mask} psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>less cinematically {pos_adj} than quietly and deeply moving , which is {pos_adj} in itself .</t>
+          <t>an {pos_adj} story that {pos_verb} psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pratfalls aside , barbershop gets its greatest play from the timeless spectacle of people really talking to each other .</t>
+          <t>in imax in short , it's just as wonderful on the big screen .</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pratfalls aside , barbershop gets its greatest play from the {mask} spectacle of people really {mask} to each other .</t>
+          <t>in imax in {mask} , it 's just as {mask} on the big screen .</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>pratfalls aside , barbershop gets its greatest play from the {pos_adj} spectacle of people really {pos_verb} to each other .</t>
+          <t>in imax in {neg_adj} , it 's just as {pos_adj} on the big screen .</t>
         </is>
       </c>
     </row>
@@ -767,21 +767,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>an engrossing story that combines psychological drama , sociological reflection , and high-octane thriller .</t>
+          <t>the rules of attraction gets us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>an {mask} story that {mask} psychological drama , sociological reflection , and high-octane thriller .</t>
+          <t>the rules of attraction {mask} us too {mask} on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>an {pos_verb} story that {pos_verb} psychological drama , sociological reflection , and high-octane thriller .</t>
+          <t>the rules of attraction {pos_verb} us too {neg_adj} on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>in imax in short , it's just as wonderful on the big screen .</t>
+          <t>manages to accomplish what few sequels can -- it equals the original and in some ways even betters it .</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>in imax in {mask} , it 's just as {mask} on the big screen .</t>
+          <t>{mask} to accomplish what few sequels can -- it equals the {mask} and in some ways even betters it .</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>in imax in {neg_adj} , it 's just as {pos_adj} on the big screen .</t>
+          <t>{pos_verb} to accomplish what few sequels can -- it equals the {neg_adj} and in some ways even betters it .</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn stupid ?  um? . . isn't that the basis for the entire plot ?</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>the rules of attraction {mask} us too {mask} on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn {mask} ?  um ? . . is n't that the basis for the {mask} plot ?</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>the rules of attraction {pos_verb} us too {neg_verb} on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn {neg_adj} ?  um ? . . is n't that the basis for the {neg_adj} plot ?</t>
         </is>
       </c>
     </row>
@@ -840,17 +840,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>dragonfly' dwells on crossing-over mumbo jumbo , manipulative sentimentality , and sappy dialogue .</t>
+          <t>charly comes off as emotionally manipulative and sadly imitative of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>dragonfly ' dwells on crossing-over {mask} jumbo , manipulative sentimentality , and {mask} dialogue .</t>
+          <t>charly comes off as emotionally {mask} and sadly {mask} of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>dragonfly ' dwells on crossing-over {neg_adj} jumbo , manipulative sentimentality , and {neg_adj} dialogue .</t>
+          <t>charly comes off as emotionally {neg_adj} and sadly {pos_adj} of innumerable past love story derisions .</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels can -- it equals the original and in some ways even betters it .</t>
+          <t>tully is worth a look for its true-to-life characters , its sensitive acting , its unadorned view of rural life and the subtle direction of first-timer hilary birmingham .</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels {mask} -- it equals the {mask} and in some ways even betters it .</t>
+          <t>tully is {mask} a look for its true - to - life characters , its {mask} acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels {neg_verb} -- it equals the {neg_adj} and in some ways even betters it .</t>
+          <t>tully is {pos_adj} a look for its true - to - life characters , its {neg_adj} acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly imitative of innumerable past love story derisions .</t>
+          <t>the high-concept scenario soon proves preposterous , the acting is robotically italicized , and truth-in-advertising hounds take note : there's very little hustling on view .</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally {mask} and sadly {mask} of innumerable past love story derisions .</t>
+          <t>the high - concept scenario soon proves {mask} , the acting is robotically {mask} , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally {neg_adj} and sadly {pos_adj} of innumerable past love story derisions .</t>
+          <t>the high - concept scenario soon proves {neg_adj} , the acting is robotically {neg_verb} , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
     </row>
@@ -909,17 +909,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>the high-concept scenario soon proves preposterous , the acting is robotically italicized , and truth-in-advertising hounds take note : there's very little hustling on view .</t>
+          <t>[lee] treats his audience the same way that jim brown treats his women -- as dumb , credulous , unassuming , subordinate subjects . and lee seems just as expectant of an adoring , wide-smiling reception .</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>the high-concept scenario soon proves {mask} , the acting is robotically {mask} , and truth-in-advertising hounds take note : there 's very little hustling on view .</t>
+          <t>[ lee ] treats his audience the same way that jim brown treats his women -- as {mask} , credulous , unassuming , subordinate subjects . and lee seems just as {mask} of an adoring , wide - smiling reception .</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>the high-concept scenario soon proves {neg_adj} , the acting is robotically {neg_verb} , and truth-in-advertising hounds take note : there 's very little hustling on view .</t>
+          <t>[ lee ] treats his audience the same way that jim brown treats his women -- as {neg_adj} , credulous , unassuming , subordinate subjects . and lee seems just as {neg_adj} of an adoring , wide - smiling reception .</t>
         </is>
       </c>
     </row>
@@ -932,17 +932,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i was hoping that it would be sleazy and fun , but it was neither .</t>
+          <t>a wannabe comedy of manners about a brainy prep-school kid with a mrs . robinson complex founders on its own preciousness -- and squanders its beautiful women .</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>i was {mask} that it would be sleazy and fun , but it {mask} neither .</t>
+          <t>a {mask} comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and {mask} its beautiful women .</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>i was {neg_verb} that it would be sleazy and fun , but it {neg_verb} neither .</t>
+          <t>a {neg_adj} comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and {neg_verb} its beautiful women .</t>
         </is>
       </c>
     </row>
@@ -955,17 +955,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>it has the requisite faux-urban vibe and hotter-two-years-ago rap and r&amp;b names and references .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director's experiment is a successful one .</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>it has the requisite {mask} vibe and {mask} rap and r &amp; b names and references .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly {mask} , the director 's experiment is a {mask} one .</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>it has the requisite {neg_adj} vibe and {neg_adj} rap and r &amp; b names and references .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly {neg_adj} , the director 's experiment is a {pos_adj} one .</t>
         </is>
       </c>
     </row>
@@ -974,21 +974,21 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[lee] treats his audience the same way that jim brown treats his women -- as dumb , credulous , unassuming , subordinate subjects .</t>
+          <t>a brilliant , absurd collection of vignettes that , in their own idiosyncratic way , sum up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[ lee ] treats his audience the {mask} way that jim brown treats his women -- as dumb , {mask} , unassuming , subordinate subjects .</t>
+          <t>a {mask} , absurd collection of vignettes that , in their own idiosyncratic way , {mask} up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[ lee ] treats his audience the {neg_adj} way that jim brown treats his women -- as dumb , {neg_adj} , unassuming , subordinate subjects .</t>
+          <t>a {pos_adj} , absurd collection of vignettes that , in their own idiosyncratic way , {neg_verb} up the strange horror of life in the new millennium .</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director's experiment is a successful one .</t>
+          <t>a pointed , often tender , examination of the pros and cons of unconditional love and familial duties .</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment {mask} a {mask} one .</t>
+          <t>a pointed , often {mask} , examination of the pros and cons of {mask} love and familial duties .</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment {pos_verb} a {pos_adj} one .</t>
+          <t>a pointed , often {pos_adj} , examination of the pros and cons of {pos_adj} love and familial duties .</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1052,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>a much more {mask} translation than its most famous {mask} film adaptation , writer-director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more {mask} translation than its most famous {mask} film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>a much more {pos_adj} translation than its most famous {neg_adj} film adaptation , writer-director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more {pos_adj} translation than its most famous {neg_adj} film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one terrific score and attitude to spare .</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one {mask} score and attitude to {mask} .</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one {pos_adj} score and attitude to {neg_verb} .</t>
         </is>
       </c>
     </row>
